--- a/testcase/4-2-NF-CONVERG-EVI10-20-SRX-L3VPN/4-2-RESULTS.xlsx
+++ b/testcase/4-2-NF-CONVERG-EVI10-20-SRX-L3VPN/4-2-RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tplisson/Dropbox/dvt-evpn-mpls/testcase/4-2-NF-CONVERG-EVI10-20-SRX-L3VPN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334EC075-E41F-EA4B-9E9C-3F33B8B5D413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D154D1D6-7367-7842-9543-6862916D1DC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="1940" windowWidth="26840" windowHeight="15000" xr2:uid="{C8F6BCD9-09B2-8F4B-AFC8-10454014A4A1}"/>
   </bookViews>
@@ -99,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,6 +133,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -327,6 +334,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -351,14 +367,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,7 +693,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -688,22 +704,22 @@
     <col min="5" max="5" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="6.83203125" style="3" customWidth="1"/>
-    <col min="9" max="12" width="10.83203125" style="21"/>
+    <col min="9" max="12" width="10.83203125" style="13"/>
     <col min="13" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="15"/>
       <c r="I1" s="2">
         <f>AVERAGE(I3:I22)</f>
-        <v>99.483333333333334</v>
+        <v>117.52000000000001</v>
       </c>
       <c r="J1" s="2">
         <f>MIN(J3:J22)</f>
-        <v>0.2</v>
+        <v>111.5</v>
       </c>
       <c r="K1" s="2">
         <f>MAX(K3:K22)</f>
@@ -711,7 +727,7 @@
       </c>
       <c r="L1" s="2">
         <f>AVERAGE(L3:L22)</f>
-        <v>101.93833333333333</v>
+        <v>122.14000000000001</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -753,28 +769,28 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>18</v>
+      <c r="C3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="E3" s="8">
         <v>1000</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="11">
         <v>1000</v>
       </c>
-      <c r="G3" s="20">
-        <v>1</v>
-      </c>
-      <c r="H3" s="20">
+      <c r="G3" s="12">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12">
         <v>1</v>
       </c>
       <c r="I3" s="9"/>
@@ -783,20 +799,20 @@
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="17"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="8">
         <v>1001</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="11">
         <v>1001</v>
       </c>
-      <c r="G4" s="20">
-        <v>1</v>
-      </c>
-      <c r="H4" s="20">
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12">
         <v>1</v>
       </c>
       <c r="I4" s="9"/>
@@ -805,20 +821,20 @@
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="17"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="8">
         <v>1002</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="11">
         <v>1002</v>
       </c>
-      <c r="G5" s="20">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20">
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
         <v>1</v>
       </c>
       <c r="I5" s="9"/>
@@ -827,20 +843,20 @@
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="17"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="8">
         <v>1003</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="11">
         <v>1003</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="12">
         <v>2</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="12">
         <v>1</v>
       </c>
       <c r="I6" s="9"/>
@@ -849,20 +865,20 @@
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="17"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="8">
         <v>1004</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="11">
         <v>1004</v>
       </c>
-      <c r="G7" s="20">
-        <v>1</v>
-      </c>
-      <c r="H7" s="20">
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12">
         <v>1</v>
       </c>
       <c r="I7" s="9"/>
@@ -871,54 +887,42 @@
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="17"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="8">
         <v>1005</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="11">
         <v>1005</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="12">
         <v>184</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="12">
         <v>2</v>
       </c>
-      <c r="I8" s="9">
-        <f>AVERAGE(G8:H8)/10</f>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="J8" s="9">
-        <f>MIN(G8:H8)/10</f>
-        <v>0.2</v>
-      </c>
-      <c r="K8" s="9">
-        <f>MAX(G8:H8)/10</f>
-        <v>18.399999999999999</v>
-      </c>
-      <c r="L8" s="9">
-        <f>MAX(H8:I8)/10</f>
-        <v>0.93</v>
-      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="8">
         <v>1006</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="11">
         <v>1006</v>
       </c>
-      <c r="G9" s="20">
-        <v>1</v>
-      </c>
-      <c r="H9" s="20">
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12">
         <v>1</v>
       </c>
       <c r="I9" s="9"/>
@@ -927,20 +931,20 @@
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="8">
         <v>1007</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="11">
         <v>1007</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="12">
         <v>2</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="12">
         <v>2</v>
       </c>
       <c r="I10" s="9"/>
@@ -949,20 +953,20 @@
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="17"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="8">
         <v>1008</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="11">
         <v>1008</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="12">
         <v>2</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="12">
         <v>1</v>
       </c>
       <c r="I11" s="9"/>
@@ -971,20 +975,20 @@
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="18"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="8">
         <v>1009</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="11">
         <v>1009</v>
       </c>
-      <c r="G12" s="20">
-        <v>1</v>
-      </c>
-      <c r="H12" s="20">
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12">
         <v>1</v>
       </c>
       <c r="I12" s="9"/>
@@ -993,24 +997,24 @@
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>17</v>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="E13" s="8">
         <v>1000</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="11">
         <v>1000</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="12">
         <v>1115</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="12">
         <v>1145</v>
       </c>
       <c r="I13" s="9">
@@ -1031,20 +1035,20 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="17"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="8">
         <v>1001</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="11">
         <v>1001</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="12">
         <v>1150</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="12">
         <v>1335</v>
       </c>
       <c r="I14" s="9">
@@ -1065,20 +1069,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="17"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="8">
         <v>1002</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="11">
         <v>1002</v>
       </c>
-      <c r="G15" s="20">
-        <v>1</v>
-      </c>
-      <c r="H15" s="20">
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
+      <c r="H15" s="12">
         <v>1</v>
       </c>
       <c r="I15" s="9"/>
@@ -1087,20 +1091,20 @@
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="17"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="8">
         <v>1003</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="11">
         <v>1003</v>
       </c>
-      <c r="G16" s="20">
-        <v>1</v>
-      </c>
-      <c r="H16" s="20">
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12">
         <v>1</v>
       </c>
       <c r="I16" s="9"/>
@@ -1109,20 +1113,20 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="17"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="8">
         <v>1004</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="11">
         <v>1004</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="12">
         <v>1115</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="12">
         <v>1145</v>
       </c>
       <c r="I17" s="9">
@@ -1143,20 +1147,20 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="17"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="8">
         <v>1005</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="11">
         <v>1005</v>
       </c>
-      <c r="G18" s="20">
-        <v>1</v>
-      </c>
-      <c r="H18" s="20">
+      <c r="G18" s="12">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12">
         <v>2</v>
       </c>
       <c r="I18" s="9"/>
@@ -1165,20 +1169,20 @@
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="17"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="8">
         <v>1006</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="11">
         <v>1006</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="12">
         <v>1115</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="12">
         <v>1145</v>
       </c>
       <c r="I19" s="9">
@@ -1199,20 +1203,20 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="17"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="8">
         <v>1007</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="11">
         <v>1007</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="12">
         <v>1150</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="12">
         <v>1337</v>
       </c>
       <c r="I20" s="9">
@@ -1233,20 +1237,20 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="17"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="8">
         <v>1008</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="11">
         <v>1008</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="12">
         <v>2</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="12">
         <v>1</v>
       </c>
       <c r="I21" s="9"/>
@@ -1255,20 +1259,20 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="18"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="8">
         <v>1009</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="11">
         <v>1009</v>
       </c>
-      <c r="G22" s="20">
-        <v>1</v>
-      </c>
-      <c r="H22" s="20">
+      <c r="G22" s="12">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12">
         <v>1</v>
       </c>
       <c r="I22" s="9"/>
